--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—含样品.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—含样品.xlsx
@@ -610,9 +610,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>走量(pcs)</t>
-  </si>
-  <si>
     <t>{{Sop.Year}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -772,6 +769,10 @@
       <t>}}</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1214,7 +1215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1397,6 +1398,84 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1409,82 +1488,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2275,8 +2279,8 @@
   </sheetPr>
   <dimension ref="B1:V119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:H39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2347,20 +2351,20 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
+      <c r="B4" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -2373,17 +2377,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="47" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
     </row>
     <row r="6" spans="2:19" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
@@ -2615,13 +2619,13 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="D19" s="65" t="s">
         <v>111</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>112</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="14"/>
@@ -2634,14 +2638,14 @@
       <c r="M19" s="33"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="D20" s="69" t="s">
         <v>114</v>
-      </c>
-      <c r="D20" s="84" t="s">
-        <v>115</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="14"/>
@@ -2696,23 +2700,23 @@
       <c r="M23" s="33"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="74" t="s">
+      <c r="C24" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="87"/>
+      <c r="E24" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="76" t="s">
+      <c r="G24" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="80" t="s">
+      <c r="H24" s="89" t="s">
         <v>34</v>
       </c>
       <c r="I24" s="14"/>
@@ -2722,13 +2726,13 @@
       <c r="M24" s="33"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="73"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="80"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="89"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
@@ -2736,24 +2740,24 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="D26" s="91"/>
+      <c r="E26" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88" t="s">
+      <c r="F26" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="89" t="s">
+      <c r="G26" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="90" t="s">
+      <c r="H26" s="71" t="s">
         <v>106</v>
-      </c>
-      <c r="H26" s="88" t="s">
-        <v>107</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -2890,26 +2894,26 @@
       <c r="M35" s="33"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="92" t="s">
+      <c r="C36" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="93"/>
-      <c r="E36" s="94" t="s">
+      <c r="D36" s="80"/>
+      <c r="E36" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="95" t="s">
+      <c r="F36" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="92" t="s">
+      <c r="G36" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="93"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
       <c r="L36" s="19"/>
       <c r="M36" s="33"/>
     </row>
@@ -2935,7 +2939,7 @@
     </row>
     <row r="38" spans="2:22" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2956,25 +2960,25 @@
       <c r="S38" s="22"/>
     </row>
     <row r="39" spans="2:22" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C39" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="81" t="s">
+      <c r="D39" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="81" t="s">
+      <c r="E39" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="F39" s="81" t="s">
+      <c r="F39" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="G39" s="81" t="s">
+      <c r="G39" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="H39" s="81" t="s">
+      <c r="H39" s="66" t="s">
         <v>99</v>
       </c>
       <c r="I39" s="21"/>
@@ -3076,48 +3080,48 @@
       <c r="O44" s="25"/>
     </row>
     <row r="45" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="D45" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67" t="s">
+      <c r="E45" s="93"/>
+      <c r="F45" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67" t="s">
+      <c r="G45" s="93"/>
+      <c r="H45" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67" t="s">
+      <c r="I45" s="93"/>
+      <c r="J45" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67" t="s">
+      <c r="K45" s="93"/>
+      <c r="L45" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="M45" s="67"/>
-      <c r="N45" s="67" t="s">
+      <c r="M45" s="93"/>
+      <c r="N45" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="O45" s="67"/>
-      <c r="P45" s="67" t="s">
+      <c r="O45" s="93"/>
+      <c r="P45" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="67" t="s">
+      <c r="Q45" s="93"/>
+      <c r="R45" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="68"/>
+      <c r="S45" s="94"/>
     </row>
     <row r="46" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="69"/>
-      <c r="C46" s="67"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="93"/>
       <c r="D46" s="54" t="s">
         <v>53</v>
       </c>
@@ -3168,58 +3172,58 @@
       </c>
     </row>
     <row r="47" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="82" t="s">
+      <c r="C47" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="82" t="s">
+      <c r="D47" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="82" t="s">
+      <c r="E47" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="82" t="s">
+      <c r="F47" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="82" t="s">
+      <c r="G47" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="H47" s="82" t="s">
+      <c r="H47" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="I47" s="82" t="s">
+      <c r="I47" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="J47" s="82" t="s">
+      <c r="J47" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="K47" s="82" t="s">
+      <c r="K47" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="L47" s="82" t="s">
+      <c r="L47" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="M47" s="82" t="s">
+      <c r="M47" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="N47" s="82" t="s">
+      <c r="N47" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="O47" s="82" t="s">
+      <c r="O47" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="P47" s="82" t="s">
+      <c r="P47" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="Q47" s="82" t="s">
+      <c r="Q47" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="R47" s="82" t="s">
+      <c r="R47" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="S47" s="83" t="s">
+      <c r="S47" s="68" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3370,31 +3374,31 @@
       <c r="V54" s="5"/>
     </row>
     <row r="55" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="81" t="s">
+      <c r="B55" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="81" t="s">
+      <c r="C55" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="81" t="s">
+      <c r="D55" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="E55" s="81" t="s">
+      <c r="E55" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="F55" s="81" t="s">
+      <c r="F55" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="G55" s="81" t="s">
+      <c r="G55" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="H55" s="81" t="s">
+      <c r="H55" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="I55" s="81" t="s">
+      <c r="I55" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="J55" s="81" t="s">
+      <c r="J55" s="66" t="s">
         <v>84</v>
       </c>
       <c r="K55" s="1"/>
@@ -3491,25 +3495,25 @@
       <c r="V61" s="25"/>
     </row>
     <row r="62" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="81" t="s">
+      <c r="B62" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="81" t="s">
+      <c r="C62" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="D62" s="81" t="s">
+      <c r="D62" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="E62" s="81" t="s">
+      <c r="E62" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="F62" s="81" t="s">
+      <c r="F62" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G62" s="81" t="s">
+      <c r="G62" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="H62" s="81" t="s">
+      <c r="H62" s="66" t="s">
         <v>93</v>
       </c>
       <c r="K62" s="1"/>
@@ -4380,6 +4384,16 @@
     <row r="119" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="J5:M5"/>
@@ -4393,16 +4407,6 @@
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="I36:K36"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—含样品.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—含样品.xlsx
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
   <si>
     <t>报价形式：</t>
   </si>
@@ -611,10 +611,6 @@
   </si>
   <si>
     <t>{{Sop.Year}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.Motion}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -771,7 +767,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>实际数量</t>
+    <t>{{ProjectName}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心组件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -916,7 +932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1103,17 +1119,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1144,17 +1149,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1215,7 +1209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="94">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1380,13 +1374,13 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1419,7 +1413,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1431,6 +1425,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1446,50 +1449,32 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2280,7 +2265,7 @@
   <dimension ref="B1:V119"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D25"/>
+      <selection activeCell="C24" sqref="C24:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2351,20 +2336,20 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
+      <c r="B4" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -2377,17 +2362,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="47" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
     </row>
     <row r="6" spans="2:19" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
@@ -2619,13 +2604,13 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="D19" s="65" t="s">
         <v>110</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>111</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="14"/>
@@ -2639,13 +2624,13 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="D20" s="69" t="s">
         <v>113</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>114</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="14"/>
@@ -2700,70 +2685,60 @@
       <c r="M23" s="33"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="83" t="s">
+      <c r="C24" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="83" t="s">
+      <c r="D24" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="85" t="s">
+      <c r="E24" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="89" t="s">
+      <c r="F24" s="90" t="s">
         <v>34</v>
       </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="33"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="33"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="82"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="89"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="33"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="33"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B26" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="71" t="s">
+      <c r="D26" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="E26" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="73" t="s">
+      <c r="F26" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="H26" s="71" t="s">
-        <v>106</v>
-      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="33"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="33"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="60"/>
@@ -2839,7 +2814,9 @@
       <c r="B32" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2880,13 +2857,23 @@
       <c r="M34" s="33"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="34"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+      <c r="B35" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="92"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
@@ -2897,23 +2884,23 @@
       <c r="B36" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="80"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="75" t="s">
         <v>86</v>
       </c>
       <c r="F36" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="79" t="s">
+      <c r="G36" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="80"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
       <c r="L36" s="19"/>
       <c r="M36" s="33"/>
     </row>
@@ -2939,7 +2926,7 @@
     </row>
     <row r="38" spans="2:22" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3080,48 +3067,48 @@
       <c r="O44" s="25"/>
     </row>
     <row r="45" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="95" t="s">
+      <c r="B45" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="93" t="s">
+      <c r="C45" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="93" t="s">
+      <c r="D45" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93" t="s">
+      <c r="E45" s="77"/>
+      <c r="F45" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="93"/>
-      <c r="H45" s="93" t="s">
+      <c r="G45" s="77"/>
+      <c r="H45" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="I45" s="93"/>
-      <c r="J45" s="93" t="s">
+      <c r="I45" s="77"/>
+      <c r="J45" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="K45" s="93"/>
-      <c r="L45" s="93" t="s">
+      <c r="K45" s="77"/>
+      <c r="L45" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="M45" s="93"/>
-      <c r="N45" s="93" t="s">
+      <c r="M45" s="77"/>
+      <c r="N45" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="O45" s="93"/>
-      <c r="P45" s="93" t="s">
+      <c r="O45" s="77"/>
+      <c r="P45" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="Q45" s="93"/>
-      <c r="R45" s="93" t="s">
+      <c r="Q45" s="77"/>
+      <c r="R45" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="94"/>
+      <c r="S45" s="78"/>
     </row>
     <row r="46" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="95"/>
-      <c r="C46" s="93"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="77"/>
       <c r="D46" s="54" t="s">
         <v>53</v>
       </c>
@@ -4383,7 +4370,18 @@
     <row r="118" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="119" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="21">
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="I36:K36"/>
     <mergeCell ref="R45:S45"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="C45:C46"/>
@@ -4394,19 +4392,6 @@
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
     <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I36:K36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—含样品.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—含样品.xlsx
@@ -1425,6 +1425,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1469,12 +1475,6 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2264,8 +2264,8 @@
   </sheetPr>
   <dimension ref="B1:V119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2336,20 +2336,20 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -2362,17 +2362,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
       <c r="G5" s="47" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
     </row>
     <row r="6" spans="2:19" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
@@ -2685,19 +2685,19 @@
       <c r="M23" s="33"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="88" t="s">
+      <c r="E24" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="90" t="s">
+      <c r="F24" s="92" t="s">
         <v>34</v>
       </c>
       <c r="G24" s="14"/>
@@ -2707,11 +2707,11 @@
       <c r="K24" s="33"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="85"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -2860,20 +2860,20 @@
       <c r="B35" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="92" t="s">
+      <c r="C35" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92" t="s">
+      <c r="D35" s="77"/>
+      <c r="E35" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="F35" s="93" t="s">
+      <c r="F35" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="G35" s="93" t="s">
+      <c r="G35" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="H35" s="92"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
@@ -2884,23 +2884,23 @@
       <c r="B36" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="83"/>
+      <c r="D36" s="85"/>
       <c r="E36" s="75" t="s">
         <v>86</v>
       </c>
       <c r="F36" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="82" t="s">
+      <c r="G36" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="83"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
       <c r="L36" s="19"/>
       <c r="M36" s="33"/>
     </row>
@@ -3067,48 +3067,48 @@
       <c r="O44" s="25"/>
     </row>
     <row r="45" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="77" t="s">
+      <c r="D45" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77" t="s">
+      <c r="E45" s="79"/>
+      <c r="F45" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77" t="s">
+      <c r="G45" s="79"/>
+      <c r="H45" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77" t="s">
+      <c r="I45" s="79"/>
+      <c r="J45" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77" t="s">
+      <c r="K45" s="79"/>
+      <c r="L45" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77" t="s">
+      <c r="M45" s="79"/>
+      <c r="N45" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="O45" s="77"/>
-      <c r="P45" s="77" t="s">
+      <c r="O45" s="79"/>
+      <c r="P45" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="Q45" s="77"/>
-      <c r="R45" s="77" t="s">
+      <c r="Q45" s="79"/>
+      <c r="R45" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="78"/>
+      <c r="S45" s="80"/>
     </row>
     <row r="46" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="79"/>
-      <c r="C46" s="77"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="54" t="s">
         <v>53</v>
       </c>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—含样品.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—含样品.xlsx
@@ -296,10 +296,6 @@
     <t>{{SopTime}}</t>
   </si>
   <si>
-    <t>{{PaymentMethod}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{{ExchangeRate}}</t>
   </si>
   <si>
@@ -503,22 +499,6 @@
   </si>
   <si>
     <t>{{BiddingStrategySecondModels.Price}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{BiddingStrategySecondModels.SopGrossMargin}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{BiddingStrategySecondModels.TotallifeCyclegrossMargin}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{BiddingStrategySecondModels.ClientGrossMargin}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{BiddingStrategySecondModels.NreGrossMargin}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -788,6 +768,26 @@
   </si>
   <si>
     <t>方案名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PaymentMethod}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{BiddingStrategySecondModels.SopGrossMargin}}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{BiddingStrategySecondModels.TotallifeCyclegrossMargin}}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{BiddingStrategySecondModels.ClientGrossMargin}}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{BiddingStrategySecondModels.NreGrossMargin}}%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1209,7 +1209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1431,6 +1431,42 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1440,42 +1476,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2264,8 +2265,8 @@
   </sheetPr>
   <dimension ref="B1:V119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2336,20 +2337,20 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
+      <c r="B4" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -2362,17 +2363,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="47" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
     </row>
     <row r="6" spans="2:19" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
@@ -2425,7 +2426,7 @@
       <c r="G8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="94" t="s">
         <v>45</v>
       </c>
       <c r="I8" s="15"/>
@@ -2493,8 +2494,8 @@
       <c r="G12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="44" t="s">
-        <v>46</v>
+      <c r="H12" s="94" t="s">
+        <v>115</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -2549,8 +2550,8 @@
       <c r="G15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="44" t="s">
-        <v>47</v>
+      <c r="H15" s="94" t="s">
+        <v>46</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="14"/>
@@ -2604,13 +2605,13 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="64" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="14"/>
@@ -2624,13 +2625,13 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="69" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="14"/>
@@ -2685,19 +2686,19 @@
       <c r="M23" s="33"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="90" t="s">
+      <c r="E24" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="92" t="s">
+      <c r="F24" s="89" t="s">
         <v>34</v>
       </c>
       <c r="G24" s="14"/>
@@ -2707,11 +2708,11 @@
       <c r="K24" s="33"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="87"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="92"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -2720,19 +2721,19 @@
     </row>
     <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B26" s="70" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C26" s="71" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D26" s="72" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E26" s="73" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F26" s="71" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -2815,7 +2816,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2858,20 +2859,20 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="34" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C35" s="77" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D35" s="77"/>
       <c r="E35" s="77" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F35" s="78" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G35" s="78" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H35" s="77"/>
       <c r="I35" s="14"/>
@@ -2882,25 +2883,25 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="D36" s="82"/>
+      <c r="E36" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="85"/>
-      <c r="E36" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="76" t="s">
+      <c r="G36" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36" s="85"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
       <c r="L36" s="19"/>
       <c r="M36" s="33"/>
     </row>
@@ -2926,7 +2927,7 @@
     </row>
     <row r="38" spans="2:22" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2948,25 +2949,25 @@
     </row>
     <row r="39" spans="2:22" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C39" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="66" t="s">
         <v>94</v>
-      </c>
-      <c r="D39" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="G39" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" s="66" t="s">
-        <v>99</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -3067,151 +3068,151 @@
       <c r="O44" s="25"/>
     </row>
     <row r="45" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="81" t="s">
+      <c r="B45" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79" t="s">
+      <c r="G45" s="91"/>
+      <c r="H45" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79" t="s">
+      <c r="I45" s="91"/>
+      <c r="J45" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79" t="s">
+      <c r="K45" s="91"/>
+      <c r="L45" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" s="91"/>
+      <c r="N45" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="O45" s="91"/>
+      <c r="P45" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="O45" s="79"/>
-      <c r="P45" s="79" t="s">
+      <c r="Q45" s="91"/>
+      <c r="R45" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="92"/>
+    </row>
+    <row r="46" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="93"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="Q45" s="79"/>
-      <c r="R45" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="S45" s="80"/>
-    </row>
-    <row r="46" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="81"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="54" t="s">
+      <c r="E46" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="54" t="s">
-        <v>54</v>
-      </c>
       <c r="F46" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="G46" s="54" t="s">
-        <v>54</v>
-      </c>
       <c r="H46" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="I46" s="54" t="s">
-        <v>54</v>
-      </c>
       <c r="J46" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="K46" s="54" t="s">
-        <v>54</v>
-      </c>
       <c r="L46" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="M46" s="54" t="s">
-        <v>54</v>
-      </c>
       <c r="N46" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="O46" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="O46" s="54" t="s">
-        <v>54</v>
-      </c>
       <c r="P46" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q46" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="Q46" s="54" t="s">
-        <v>54</v>
-      </c>
       <c r="R46" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="S46" s="55" t="s">
         <v>53</v>
-      </c>
-      <c r="S46" s="55" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="D47" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="67" t="s">
+      <c r="E47" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="67" t="s">
+      <c r="F47" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="67" t="s">
+      <c r="G47" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="67" t="s">
+      <c r="H47" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="H47" s="67" t="s">
+      <c r="I47" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="I47" s="67" t="s">
+      <c r="J47" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="J47" s="67" t="s">
+      <c r="K47" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="K47" s="67" t="s">
+      <c r="L47" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="L47" s="67" t="s">
+      <c r="M47" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="M47" s="67" t="s">
+      <c r="N47" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="N47" s="67" t="s">
+      <c r="O47" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="O47" s="67" t="s">
+      <c r="P47" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="P47" s="67" t="s">
+      <c r="Q47" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="Q47" s="67" t="s">
+      <c r="R47" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="R47" s="67" t="s">
+      <c r="S47" s="68" t="s">
         <v>71</v>
-      </c>
-      <c r="S47" s="68" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="48" spans="2:22" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3362,31 +3363,31 @@
     </row>
     <row r="55" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="66" t="s">
+      <c r="E55" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="E55" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="66" t="s">
-        <v>80</v>
-      </c>
       <c r="G55" s="66" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="H55" s="66" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="I55" s="66" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="J55" s="66" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -3483,25 +3484,25 @@
     </row>
     <row r="62" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="66" t="s">
+      <c r="H62" s="66" t="s">
         <v>88</v>
-      </c>
-      <c r="D62" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="F62" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="G62" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="H62" s="66" t="s">
-        <v>93</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -4371,6 +4372,16 @@
     <row r="119" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="J5:M5"/>
@@ -4382,16 +4393,6 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="I36:K36"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—含样品.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—含样品.xlsx
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="121">
   <si>
     <t>报价形式：</t>
   </si>
@@ -271,34 +271,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{OfferForm}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{DirectCustomerName}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{TerminalCustomerName}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ProjectCycle}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{{modeOfTrade}}</t>
   </si>
   <si>
-    <t>{{ForSale}}</t>
-  </si>
-  <si>
-    <t>{{SopTime}}</t>
-  </si>
-  <si>
-    <t>{{ExchangeRate}}</t>
-  </si>
-  <si>
     <t>成本单价信息</t>
   </si>
   <si>
@@ -372,10 +347,6 @@
   </si>
   <si>
     <t>{{pricingMessageSecondModels.Allfull}}</t>
-  </si>
-  <si>
-    <t>{{BiddingStrategySecondModels.gradient}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -490,22 +461,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{{BiddingStrategySecondModels.Product}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{BiddingStrategySecondModels.SopCost}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{BiddingStrategySecondModels.Price}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{BiddingStrategySecondModels.FullLifeCyclecost}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>{{</t>
     </r>
@@ -588,26 +543,6 @@
   <si>
     <t>{{nres.solutionName}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.Year}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.AnnualDeclineRate}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.AnnualRebateRequirements}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.OneTimeDiscountRate}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.CommissionRate}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NRE</t>
@@ -771,23 +706,207 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{PaymentMethod}}</t>
+    <t>{{offerForm}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{directCustomerName}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{BiddingStrategySecondModels.SopGrossMargin}}%</t>
+    <t>{{terminalCustomerName}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{BiddingStrategySecondModels.TotallifeCyclegrossMargin}}%</t>
+    <t>{{projectCycle}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{BiddingStrategySecondModels.ClientGrossMargin}}%</t>
+    <t>{{forSale}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{BiddingStrategySecondModels.NreGrossMargin}}%</t>
+    <t>{{sopTime}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{paymentMethod}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{exchangeRate}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>op.Year}}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>op.AnnualDeclineRate}}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>op.AnnualRebateRequirements}}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>op.OneTimeDiscountRate}}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>op.CommissionRate}}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{quoteCurrency}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.Product}}</t>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.SopCost}}</t>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.FullLifeCyclecost}}</t>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.Price}}</t>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.SopGrossMargin}}%</t>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.TotallifeCyclegrossMargin}}%</t>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.ClientGrossMargin}}%</t>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.NreGrossMargin}}%</t>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.gradient}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1209,7 +1328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1404,18 +1523,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1431,6 +1538,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1467,16 +1584,15 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2265,8 +2381,8 @@
   </sheetPr>
   <dimension ref="B1:V119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2338,7 +2454,7 @@
     </row>
     <row r="4" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="79" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
@@ -2360,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="80"/>
@@ -2380,7 +2496,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -2400,7 +2516,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -2426,8 +2542,8 @@
       <c r="G8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="94" t="s">
-        <v>45</v>
+      <c r="H8" s="75" t="s">
+        <v>103</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
@@ -2454,7 +2570,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -2486,7 +2602,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -2494,8 +2610,8 @@
       <c r="G12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="94" t="s">
-        <v>115</v>
+      <c r="H12" s="75" t="s">
+        <v>104</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -2508,7 +2624,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -2517,7 +2633,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -2543,15 +2659,17 @@
       <c r="B15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="44" t="s">
+        <v>111</v>
+      </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="94" t="s">
-        <v>46</v>
+      <c r="H15" s="75" t="s">
+        <v>105</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="14"/>
@@ -2605,13 +2723,13 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="64" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="14"/>
@@ -2625,13 +2743,13 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="69" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="14"/>
@@ -2720,20 +2838,20 @@
       <c r="K25" s="33"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="71" t="s">
-        <v>100</v>
+      <c r="B26" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="91" t="s">
+        <v>110</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -2816,7 +2934,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2859,22 +2977,22 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="G35" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="H35" s="77"/>
+        <v>97</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="73"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
@@ -2882,21 +3000,21 @@
       <c r="M35" s="33"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B36" s="74" t="s">
-        <v>73</v>
+      <c r="B36" s="70" t="s">
+        <v>65</v>
       </c>
       <c r="C36" s="81" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D36" s="82"/>
-      <c r="E36" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="76" t="s">
-        <v>75</v>
+      <c r="E36" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="72" t="s">
+        <v>67</v>
       </c>
       <c r="G36" s="81" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H36" s="82"/>
       <c r="I36" s="90"/>
@@ -2927,7 +3045,7 @@
     </row>
     <row r="38" spans="2:22" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2949,25 +3067,25 @@
     </row>
     <row r="39" spans="2:22" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="66" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D39" s="66" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E39" s="66" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F39" s="66" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G39" s="66" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H39" s="66" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -3068,151 +3186,151 @@
       <c r="O44" s="25"/>
     </row>
     <row r="45" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="91" t="s">
+      <c r="B45" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="91" t="s">
+      <c r="D45" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="91"/>
-      <c r="H45" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91" t="s">
+      <c r="E45" s="76"/>
+      <c r="F45" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="M45" s="91"/>
-      <c r="N45" s="91" t="s">
+      <c r="M45" s="76"/>
+      <c r="N45" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="O45" s="91"/>
-      <c r="P45" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q45" s="91"/>
-      <c r="R45" s="91" t="s">
+      <c r="O45" s="76"/>
+      <c r="P45" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="92"/>
+      <c r="S45" s="77"/>
     </row>
     <row r="46" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="93"/>
-      <c r="C46" s="91"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="54" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E46" s="54" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F46" s="54" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G46" s="54" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H46" s="54" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I46" s="54" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J46" s="54" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K46" s="54" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L46" s="54" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="M46" s="54" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N46" s="54" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O46" s="54" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="P46" s="54" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q46" s="54" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="R46" s="54" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="S46" s="55" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="I47" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="J47" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="67" t="s">
+      <c r="K47" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="67" t="s">
+      <c r="L47" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="F47" s="67" t="s">
+      <c r="M47" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="G47" s="67" t="s">
+      <c r="N47" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="H47" s="67" t="s">
+      <c r="O47" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="I47" s="67" t="s">
+      <c r="P47" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="J47" s="67" t="s">
+      <c r="Q47" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="K47" s="67" t="s">
+      <c r="R47" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="L47" s="67" t="s">
+      <c r="S47" s="68" t="s">
         <v>64</v>
-      </c>
-      <c r="M47" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="N47" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="O47" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="P47" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q47" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="R47" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="S47" s="68" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="48" spans="2:22" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3363,19 +3481,19 @@
     </row>
     <row r="55" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="66" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C55" s="66" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="D55" s="66" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="E55" s="66" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="F55" s="66" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="G55" s="66" t="s">
         <v>116</v>
@@ -3484,25 +3602,25 @@
     </row>
     <row r="62" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="66" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C62" s="66" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D62" s="66" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E62" s="66" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F62" s="66" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G62" s="66" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H62" s="66" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -4372,16 +4490,6 @@
     <row r="119" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="J5:M5"/>
@@ -4393,6 +4501,16 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="I36:K36"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—含样品.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—含样品.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\C#\ABP\dev\1111\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\财务报价核价系统__V2\后端github郭琪琪分支\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBECED35-4513-41EB-9AB7-438D7F3FD2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7005"/>
+    <workbookView xWindow="3090" yWindow="675" windowWidth="23295" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,12 +85,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>86159</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="122">
   <si>
     <t>报价形式：</t>
   </si>
@@ -878,42 +879,46 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{{quoteCurrency}}</t>
+    <t>{{biddingStrategySecondModels.Product}}</t>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.SopCost}}</t>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.FullLifeCyclecost}}</t>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.Price}}</t>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.SopGrossMargin}}%</t>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.TotallifeCyclegrossMargin}}%</t>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.ClientGrossMargin}}%</t>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.NreGrossMargin}}%</t>
+  </si>
+  <si>
+    <t>{{biddingStrategySecondModels.gradient}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{biddingStrategySecondModels.Product}}</t>
-  </si>
-  <si>
-    <t>{{biddingStrategySecondModels.SopCost}}</t>
-  </si>
-  <si>
-    <t>{{biddingStrategySecondModels.FullLifeCyclecost}}</t>
-  </si>
-  <si>
-    <t>{{biddingStrategySecondModels.Price}}</t>
-  </si>
-  <si>
-    <t>{{biddingStrategySecondModels.SopGrossMargin}}%</t>
-  </si>
-  <si>
-    <t>{{biddingStrategySecondModels.TotallifeCyclegrossMargin}}%</t>
-  </si>
-  <si>
-    <t>{{biddingStrategySecondModels.ClientGrossMargin}}%</t>
-  </si>
-  <si>
-    <t>{{biddingStrategySecondModels.NreGrossMargin}}%</t>
-  </si>
-  <si>
-    <t>{{biddingStrategySecondModels.gradient}}</t>
+    <t>{{DevelopmentPlan}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{QuoteCurrency}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm;@"/>
@@ -1539,6 +1544,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1547,59 +1597,14 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 4" xfId="1"/>
-    <cellStyle name="常规 4 2" xfId="4"/>
-    <cellStyle name="常规 7" xfId="3"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 7" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="千位分隔" xfId="5" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1627,7 +1632,13 @@
     <xdr:ext cx="2462933" cy="543965"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\fbchen\AppData\Roaming\Foxmail7\Temp-6912-20210104080636\Attach\附件2-浙江舜宇智领技术有限公司logo.png"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\fbchen\AppData\Roaming\Foxmail7\Temp-6912-20210104080636\Attach\附件2-浙江舜宇智领技术有限公司logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2375,14 +2386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:V119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:J55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2535,7 +2546,9 @@
       <c r="B8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="43" t="s">
+        <v>120</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -2660,7 +2673,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -2841,16 +2854,16 @@
       <c r="B26" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="92" t="s">
+      <c r="D26" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="93" t="s">
+      <c r="E26" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="91" t="s">
+      <c r="F26" s="76" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="14"/>
@@ -3186,48 +3199,48 @@
       <c r="O44" s="25"/>
     </row>
     <row r="45" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="76" t="s">
+      <c r="C45" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="76" t="s">
+      <c r="D45" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76" t="s">
+      <c r="E45" s="91"/>
+      <c r="F45" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76" t="s">
+      <c r="G45" s="91"/>
+      <c r="H45" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76" t="s">
+      <c r="I45" s="91"/>
+      <c r="J45" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76" t="s">
+      <c r="K45" s="91"/>
+      <c r="L45" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76" t="s">
+      <c r="M45" s="91"/>
+      <c r="N45" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76" t="s">
+      <c r="O45" s="91"/>
+      <c r="P45" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="76" t="s">
+      <c r="Q45" s="91"/>
+      <c r="R45" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="77"/>
+      <c r="S45" s="92"/>
     </row>
     <row r="46" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="78"/>
-      <c r="C46" s="76"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="91"/>
       <c r="D46" s="54" t="s">
         <v>45</v>
       </c>
@@ -3481,31 +3494,31 @@
     </row>
     <row r="55" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="66" t="s">
+      <c r="E55" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="E55" s="66" t="s">
+      <c r="F55" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="F55" s="66" t="s">
+      <c r="G55" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="G55" s="66" t="s">
+      <c r="H55" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="H55" s="66" t="s">
+      <c r="I55" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="I55" s="66" t="s">
+      <c r="J55" s="66" t="s">
         <v>118</v>
-      </c>
-      <c r="J55" s="66" t="s">
-        <v>119</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -4490,6 +4503,16 @@
     <row r="119" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="J5:M5"/>
@@ -4501,16 +4524,6 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="I36:K36"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
